--- a/schematic/OpenStrom - BOM.xlsx
+++ b/schematic/OpenStrom - BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthias E. Zeitler\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthias E. Zeitler\Documents\Business\Open Strom\Github\openstrom\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -231,12 +231,6 @@
     <t>http://www.hktdc.com/suppliers-products/High-Power-Relay/en/1X06TH7E/2984390/</t>
   </si>
   <si>
-    <t>$0,70</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
     <t>Ordering info:BT90-SS-05-D-M</t>
   </si>
 </sst>
@@ -245,8 +239,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="##0"/>
-    <numFmt numFmtId="173" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="##0"/>
+    <numFmt numFmtId="165" formatCode="[$$]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -316,30 +310,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -901,7 +895,7 @@
   <dimension ref="A1:IV974"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:IV17"/>
+      <selection activeCell="B1" sqref="B1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3465,14 +3459,15 @@
       <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="13">
+        <f>F16*G16</f>
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>69</v>

--- a/schematic/OpenStrom - BOM.xlsx
+++ b/schematic/OpenStrom - BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Cost $ (@1000)</t>
   </si>
   <si>
     <t>Total</t>
@@ -63,9 +60,6 @@
     <t>64QFN</t>
   </si>
   <si>
-    <t>http://datasheet.octopart.com/PIC32MX795F512H-80I/MR-Microchip-datasheet-10122513.pdf</t>
-  </si>
-  <si>
     <t>Energy IC STPM34</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>32 QFN</t>
   </si>
   <si>
-    <t>http://datasheet.octopart.com/STPM34TR-STMicroelectronics-datasheet-24577029.pdf</t>
-  </si>
-  <si>
     <t>WiFi IC ESP8266</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>ESP 8266</t>
   </si>
   <si>
-    <t>http://www.aliexpress.com/item/ESP8266-serial-WIFI-model-ESP-01-Authenticity-Guaranteed/2031529724.html</t>
-  </si>
-  <si>
     <t>PHY IC LAN 8720</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
   </si>
   <si>
     <t>24 QNF</t>
-  </si>
-  <si>
-    <t>http://datasheet.octopart.com/LAN8720AI-CP-Microchip-datasheet-14049756.pdf</t>
   </si>
   <si>
     <t>Serial RAM  128 MB</t>
@@ -115,9 +100,6 @@
   </si>
   <si>
     <t>8-WSON</t>
-  </si>
-  <si>
-    <t>http://datasheet.octopart.com/MX25L12845EMI-10G-Macronix-datasheet-12526005.pdf</t>
   </si>
   <si>
     <t>TerminalBlocks</t>
@@ -147,9 +129,6 @@
     <t>A-2004-2-4-LP-N-R</t>
   </si>
   <si>
-    <t>http://www.assmann-wsw.com/en/products/</t>
-  </si>
-  <si>
     <t>MRF24J40MA</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>HX1224NL</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/pulse-electronics-corporation/HX1224NL/553-2715-5-ND/5174274</t>
-  </si>
-  <si>
     <t>MP2403 Power Supply IC</t>
   </si>
   <si>
@@ -172,9 +148,6 @@
   </si>
   <si>
     <t>MP2403DN-LF-Z</t>
-  </si>
-  <si>
-    <t>https://www.monolithicpower.com/</t>
   </si>
   <si>
     <t>MP1470 Power Supply IC</t>
@@ -192,28 +165,13 @@
     <t>Relay-SPDT</t>
   </si>
   <si>
-    <t xml:space="preserve">AFE Electronics  </t>
-  </si>
-  <si>
-    <t>https://world.taobao.com/item/41532471922.htm?spm=a312a.7700714.0.0.u921ni#detail</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZMCT116A </t>
   </si>
   <si>
     <t>MRF24J40MA - ZigBee</t>
   </si>
   <si>
-    <t>http://microchip.com</t>
-  </si>
-  <si>
-    <t>http://www.zeming-e.com/English/prodviewtype5-255.html</t>
-  </si>
-  <si>
     <t>Battery 9V NiMh 300mah(PALO)</t>
-  </si>
-  <si>
-    <t>https://www.alibaba.com/product-detail/Factory-direct-sale-power-battery-6F22_60435491196.html?spm=a2700.7724838.0.0.lxum2R&amp;s=p</t>
   </si>
   <si>
     <t>Guangzhou liedianwang-China</t>
@@ -225,13 +183,19 @@
     <t>$0.98</t>
   </si>
   <si>
-    <t>BT90-DM/DB</t>
+    <t>JQX16(T91)</t>
   </si>
   <si>
-    <t>http://www.hktdc.com/suppliers-products/High-Power-Relay/en/1X06TH7E/2984390/</t>
+    <t>Yueqing Hengwei Electronics Co.</t>
   </si>
   <si>
-    <t>Ordering info:BT90-SS-05-D-M</t>
+    <t>Cost $ (@10.000)</t>
+  </si>
+  <si>
+    <t>Cost $ (@1.000)</t>
+  </si>
+  <si>
+    <t>Cost $ (@1 unit)</t>
   </si>
 </sst>
 </file>
@@ -242,7 +206,7 @@
     <numFmt numFmtId="164" formatCode="##0"/>
     <numFmt numFmtId="165" formatCode="[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -278,21 +242,48 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -301,7 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -330,15 +321,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -436,7 +437,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -491,7 +492,7 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -892,10 +893,10 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:IV974"/>
+  <dimension ref="A1:IX974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -905,15 +906,14 @@
     <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="90.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="1"/>
+    <col min="6" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -932,20 +932,24 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -960,39 +964,37 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="H2" s="11">
-        <f t="shared" ref="H2:H14" si="0">F2*G2</f>
-        <v>6.68</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J14" si="0">F2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -1007,39 +1009,37 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="11">
         <f t="shared" si="0"/>
-        <v>5.6499999999999995</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -1054,37 +1054,35 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1099,39 +1097,37 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>26</v>
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1146,39 +1142,37 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="10">
-        <v>1.82</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1193,36 +1187,34 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1237,39 +1229,37 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>35</v>
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -1514,39 +1504,37 @@
       <c r="IT8"/>
       <c r="IU8"/>
       <c r="IV8"/>
-    </row>
-    <row r="9" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW8"/>
+      <c r="IX8"/>
+    </row>
+    <row r="9" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>38</v>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -1791,37 +1779,35 @@
       <c r="IT9"/>
       <c r="IU9"/>
       <c r="IV9"/>
-    </row>
-    <row r="10" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW9"/>
+      <c r="IX9"/>
+    </row>
+    <row r="10" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -2066,37 +2052,35 @@
       <c r="IT10"/>
       <c r="IU10"/>
       <c r="IV10"/>
-    </row>
-    <row r="11" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW10"/>
+      <c r="IX10"/>
+    </row>
+    <row r="11" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="16"/>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="10">
-        <v>6.08</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>6.08</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -2341,37 +2325,35 @@
       <c r="IT11"/>
       <c r="IU11"/>
       <c r="IV11"/>
-    </row>
-    <row r="12" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW11"/>
+      <c r="IX11"/>
+    </row>
+    <row r="12" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -2616,37 +2598,35 @@
       <c r="IT12"/>
       <c r="IU12"/>
       <c r="IV12"/>
-    </row>
-    <row r="13" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW12"/>
+      <c r="IX12"/>
+    </row>
+    <row r="13" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -2891,37 +2871,35 @@
       <c r="IT13"/>
       <c r="IU13"/>
       <c r="IV13"/>
-    </row>
-    <row r="14" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW13"/>
+      <c r="IX13"/>
+    </row>
+    <row r="14" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="10">
-        <v>1.31</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>1.31</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -3166,37 +3144,35 @@
       <c r="IT14"/>
       <c r="IU14"/>
       <c r="IV14"/>
-    </row>
-    <row r="15" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW14"/>
+      <c r="IX14"/>
+    </row>
+    <row r="15" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="B15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="H15" s="13">
-        <f>F15*G15</f>
-        <v>3.69</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="12">
+        <f>F15*I15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -3441,39 +3417,35 @@
       <c r="IT15"/>
       <c r="IU15"/>
       <c r="IV15"/>
-    </row>
-    <row r="16" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW15"/>
+      <c r="IX15"/>
+    </row>
+    <row r="16" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>56</v>
+      <c r="B16" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="H16" s="13">
-        <f>F16*G16</f>
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="12">
+        <f>F16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="22"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -3718,20 +3690,22 @@
       <c r="IT16"/>
       <c r="IU16"/>
       <c r="IV16"/>
-    </row>
-    <row r="17" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW16"/>
+      <c r="IX16"/>
+    </row>
+    <row r="17" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="15"/>
-      <c r="I17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="14"/>
       <c r="K17"/>
-      <c r="L17"/>
+      <c r="L17" s="13"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -3976,17 +3950,19 @@
       <c r="IT17"/>
       <c r="IU17"/>
       <c r="IV17"/>
-    </row>
-    <row r="18" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW17"/>
+      <c r="IX17"/>
+    </row>
+    <row r="18" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18"/>
-      <c r="G18" s="10"/>
+      <c r="G18"/>
       <c r="H18"/>
-      <c r="I18"/>
+      <c r="I18" s="10"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -4234,17 +4210,19 @@
       <c r="IT18"/>
       <c r="IU18"/>
       <c r="IV18"/>
-    </row>
-    <row r="19" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW18"/>
+      <c r="IX18"/>
+    </row>
+    <row r="19" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19"/>
-      <c r="G19" s="10"/>
+      <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
+      <c r="I19" s="10"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -4492,17 +4470,19 @@
       <c r="IT19"/>
       <c r="IU19"/>
       <c r="IV19"/>
-    </row>
-    <row r="20" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW19"/>
+      <c r="IX19"/>
+    </row>
+    <row r="20" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20"/>
-      <c r="G20" s="10"/>
+      <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" s="10"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -4750,18 +4730,20 @@
       <c r="IT20"/>
       <c r="IU20"/>
       <c r="IV20"/>
-    </row>
-    <row r="21" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW20"/>
+      <c r="IX20"/>
+    </row>
+    <row r="21" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -5008,17 +4990,19 @@
       <c r="IT21"/>
       <c r="IU21"/>
       <c r="IV21"/>
-    </row>
-    <row r="22" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW21"/>
+      <c r="IX21"/>
+    </row>
+    <row r="22" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22"/>
-      <c r="G22" s="10"/>
+      <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
+      <c r="I22" s="10"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -5266,17 +5250,19 @@
       <c r="IT22"/>
       <c r="IU22"/>
       <c r="IV22"/>
-    </row>
-    <row r="23" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW22"/>
+      <c r="IX22"/>
+    </row>
+    <row r="23" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="10"/>
+      <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23" s="10"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -5524,17 +5510,19 @@
       <c r="IT23"/>
       <c r="IU23"/>
       <c r="IV23"/>
-    </row>
-    <row r="24" spans="1:256" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="IW23"/>
+      <c r="IX23"/>
+    </row>
+    <row r="24" spans="1:258" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24" s="10"/>
+      <c r="G24"/>
       <c r="H24"/>
-      <c r="I24"/>
+      <c r="I24" s="10"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -5782,18 +5770,20 @@
       <c r="IT24"/>
       <c r="IU24"/>
       <c r="IV24"/>
-    </row>
-    <row r="25" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="IW24"/>
+      <c r="IX24"/>
+    </row>
+    <row r="25" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -5810,18 +5800,20 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -5838,18 +5830,20 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -5866,18 +5860,20 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -5894,18 +5890,20 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -5922,18 +5920,20 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -5950,18 +5950,20 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -5978,18 +5980,20 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:256" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:258" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -6006,18 +6010,20 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-    </row>
-    <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -6034,18 +6040,20 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
-    </row>
-    <row r="34" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -6062,18 +6070,20 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
-    </row>
-    <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -6090,18 +6100,20 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
-    </row>
-    <row r="36" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -6118,18 +6130,20 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
-    </row>
-    <row r="37" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -6146,18 +6160,20 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
-    </row>
-    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -6174,18 +6190,20 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-    </row>
-    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -6202,18 +6220,20 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
-    </row>
-    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -6230,18 +6250,20 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
-    </row>
-    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -6258,18 +6280,20 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
-    </row>
-    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -6286,18 +6310,20 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
-    </row>
-    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -6314,18 +6340,20 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
-    </row>
-    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -6342,18 +6370,20 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
-    </row>
-    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -6370,18 +6400,20 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
-    </row>
-    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -6398,18 +6430,20 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
-    </row>
-    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -6426,18 +6460,20 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
-    </row>
-    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -6454,18 +6490,20 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
-    </row>
-    <row r="49" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -6482,18 +6520,20 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
-    </row>
-    <row r="50" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -6510,18 +6550,20 @@
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
-    </row>
-    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -6538,18 +6580,20 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
-    </row>
-    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -6566,18 +6610,20 @@
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
-    </row>
-    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -6594,18 +6640,20 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
-    </row>
-    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -6622,18 +6670,20 @@
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
-    </row>
-    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+    </row>
+    <row r="55" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -6650,18 +6700,20 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
-    </row>
-    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -6678,18 +6730,20 @@
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
-    </row>
-    <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+    </row>
+    <row r="57" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -6706,18 +6760,20 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
-    </row>
-    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -6734,18 +6790,20 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
-    </row>
-    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+    </row>
+    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -6762,18 +6820,20 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
-    </row>
-    <row r="60" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -6790,18 +6850,20 @@
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
-    </row>
-    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+    </row>
+    <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -6818,18 +6880,20 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
-    </row>
-    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -6846,18 +6910,20 @@
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+    </row>
+    <row r="63" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -6874,18 +6940,20 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
-    </row>
-    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -6902,18 +6970,20 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+    </row>
+    <row r="65" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -6930,18 +7000,20 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -6958,18 +7030,20 @@
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
-    </row>
-    <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+    </row>
+    <row r="67" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -6986,18 +7060,20 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
-    </row>
-    <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -7014,18 +7090,20 @@
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
-    </row>
-    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+    </row>
+    <row r="69" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -7042,18 +7120,20 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
-    </row>
-    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -7070,18 +7150,20 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
-    </row>
-    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+    </row>
+    <row r="71" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -7098,18 +7180,20 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
-    </row>
-    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -7126,18 +7210,20 @@
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
-    </row>
-    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+    </row>
+    <row r="73" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -7154,18 +7240,20 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
-    </row>
-    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+    </row>
+    <row r="74" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -7182,18 +7270,20 @@
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
-    </row>
-    <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+    </row>
+    <row r="75" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -7210,18 +7300,20 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
-    </row>
-    <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -7238,18 +7330,20 @@
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
-    </row>
-    <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+    </row>
+    <row r="77" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -7266,18 +7360,20 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
-    </row>
-    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+    </row>
+    <row r="78" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -7294,18 +7390,20 @@
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
-    </row>
-    <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+    </row>
+    <row r="79" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -7322,18 +7420,20 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
-    </row>
-    <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -7350,18 +7450,20 @@
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
-    </row>
-    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+    </row>
+    <row r="81" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -7378,18 +7480,20 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
-    </row>
-    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -7406,18 +7510,20 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
-    </row>
-    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+    </row>
+    <row r="83" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -7434,18 +7540,20 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
-    </row>
-    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -7462,18 +7570,20 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
-    </row>
-    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+    </row>
+    <row r="85" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7490,18 +7600,20 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
-    </row>
-    <row r="86" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -7518,18 +7630,20 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
-    </row>
-    <row r="87" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+    </row>
+    <row r="87" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -7546,18 +7660,20 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
-    </row>
-    <row r="88" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+    </row>
+    <row r="88" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -7574,18 +7690,20 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
-    </row>
-    <row r="89" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+    </row>
+    <row r="89" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -7602,18 +7720,20 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
-    </row>
-    <row r="90" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+    </row>
+    <row r="90" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -7630,18 +7750,20 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
-    </row>
-    <row r="91" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+    </row>
+    <row r="91" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -7658,18 +7780,20 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
-    </row>
-    <row r="92" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+    </row>
+    <row r="92" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -7686,18 +7810,20 @@
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
-    </row>
-    <row r="93" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+    </row>
+    <row r="93" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -7714,18 +7840,20 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
-    </row>
-    <row r="94" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+    </row>
+    <row r="94" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -7742,18 +7870,20 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
-    </row>
-    <row r="95" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+    </row>
+    <row r="95" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -7770,18 +7900,20 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
-    </row>
-    <row r="96" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+    </row>
+    <row r="96" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -7798,18 +7930,20 @@
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
-    </row>
-    <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+    </row>
+    <row r="97" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -7826,18 +7960,20 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
-    </row>
-    <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+    </row>
+    <row r="98" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -7854,18 +7990,20 @@
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
-    </row>
-    <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+    </row>
+    <row r="99" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -7882,18 +8020,20 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
-    </row>
-    <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -7910,18 +8050,20 @@
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
-    </row>
-    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+    </row>
+    <row r="101" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -7938,18 +8080,20 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
-    </row>
-    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -7966,18 +8110,20 @@
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
-    </row>
-    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+    </row>
+    <row r="103" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -7994,18 +8140,20 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
-    </row>
-    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="11"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -8022,18 +8170,20 @@
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
-    </row>
-    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+    </row>
+    <row r="105" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="11"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -8050,18 +8200,20 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
-    </row>
-    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="11"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -8078,18 +8230,20 @@
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
-    </row>
-    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="7"/>
+    </row>
+    <row r="107" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="11"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -8106,18 +8260,20 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
-    </row>
-    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -8134,18 +8290,20 @@
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
-    </row>
-    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="7"/>
+    </row>
+    <row r="109" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="11"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -8162,18 +8320,20 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
-    </row>
-    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -8190,18 +8350,20 @@
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
-    </row>
-    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="7"/>
+    </row>
+    <row r="111" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="11"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -8218,18 +8380,20 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
-    </row>
-    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -8246,18 +8410,20 @@
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
-    </row>
-    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="7"/>
+    </row>
+    <row r="113" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="11"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -8274,18 +8440,20 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
-    </row>
-    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+    </row>
+    <row r="114" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -8302,18 +8470,20 @@
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
-    </row>
-    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+    </row>
+    <row r="115" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="11"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -8330,18 +8500,20 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
-    </row>
-    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+    </row>
+    <row r="116" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -8358,18 +8530,20 @@
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
-    </row>
-    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
+    </row>
+    <row r="117" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -8386,18 +8560,20 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
-    </row>
-    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
+    </row>
+    <row r="118" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="11"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -8414,18 +8590,20 @@
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
-    </row>
-    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
+    </row>
+    <row r="119" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -8442,18 +8620,20 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
-    </row>
-    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="11"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -8470,18 +8650,20 @@
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
-    </row>
-    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA120" s="7"/>
+      <c r="AB120" s="7"/>
+    </row>
+    <row r="121" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -8498,18 +8680,20 @@
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
-    </row>
-    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+    </row>
+    <row r="122" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -8526,18 +8710,20 @@
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
-    </row>
-    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+    </row>
+    <row r="123" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -8554,18 +8740,20 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
-    </row>
-    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+    </row>
+    <row r="124" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -8582,18 +8770,20 @@
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
-    </row>
-    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
+    </row>
+    <row r="125" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="11"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -8610,18 +8800,20 @@
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
-    </row>
-    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA125" s="7"/>
+      <c r="AB125" s="7"/>
+    </row>
+    <row r="126" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -8638,18 +8830,20 @@
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
-    </row>
-    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
+    </row>
+    <row r="127" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -8666,18 +8860,20 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
-    </row>
-    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA127" s="7"/>
+      <c r="AB127" s="7"/>
+    </row>
+    <row r="128" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -8694,18 +8890,20 @@
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
-    </row>
-    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
+    </row>
+    <row r="129" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
@@ -8722,18 +8920,20 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
-    </row>
-    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA129" s="7"/>
+      <c r="AB129" s="7"/>
+    </row>
+    <row r="130" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -8750,18 +8950,20 @@
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
-    </row>
-    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
+    </row>
+    <row r="131" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="11"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -8778,18 +8980,20 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
-    </row>
-    <row r="132" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+    </row>
+    <row r="132" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
@@ -8806,18 +9010,20 @@
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
-    </row>
-    <row r="133" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA132" s="7"/>
+      <c r="AB132" s="7"/>
+    </row>
+    <row r="133" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
@@ -8834,18 +9040,20 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
-    </row>
-    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA133" s="7"/>
+      <c r="AB133" s="7"/>
+    </row>
+    <row r="134" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="11"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -8862,18 +9070,20 @@
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
-    </row>
-    <row r="135" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
+    </row>
+    <row r="135" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -8890,18 +9100,20 @@
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
-    </row>
-    <row r="136" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
+    </row>
+    <row r="136" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
@@ -8918,18 +9130,20 @@
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
-    </row>
-    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA136" s="7"/>
+      <c r="AB136" s="7"/>
+    </row>
+    <row r="137" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
@@ -8946,18 +9160,20 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
-    </row>
-    <row r="138" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA137" s="7"/>
+      <c r="AB137" s="7"/>
+    </row>
+    <row r="138" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -8974,18 +9190,20 @@
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
-    </row>
-    <row r="139" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA138" s="7"/>
+      <c r="AB138" s="7"/>
+    </row>
+    <row r="139" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -9002,18 +9220,20 @@
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
-    </row>
-    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA139" s="7"/>
+      <c r="AB139" s="7"/>
+    </row>
+    <row r="140" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="11"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
@@ -9030,18 +9250,20 @@
       <c r="X140" s="7"/>
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
-    </row>
-    <row r="141" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+    </row>
+    <row r="141" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="11"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
@@ -9058,18 +9280,20 @@
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
-    </row>
-    <row r="142" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA141" s="7"/>
+      <c r="AB141" s="7"/>
+    </row>
+    <row r="142" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="11"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -9086,18 +9310,20 @@
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
-    </row>
-    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
+    </row>
+    <row r="143" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="11"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -9114,18 +9340,20 @@
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
-    </row>
-    <row r="144" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA143" s="7"/>
+      <c r="AB143" s="7"/>
+    </row>
+    <row r="144" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
@@ -9142,6 +9370,8 @@
       <c r="X144" s="7"/>
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
+      <c r="AA144" s="7"/>
+      <c r="AB144" s="7"/>
     </row>
     <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -9975,26 +10205,9 @@
     <row r="974" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J10" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7" location="detail"/>
-    <hyperlink ref="J9" r:id="rId8" location="detail"/>
-    <hyperlink ref="J14" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="J15" r:id="rId13"/>
-    <hyperlink ref="J7" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>